--- a/Data/Processing/2024-02-02/360ONE.xlsx
+++ b/Data/Processing/2024-02-02/360ONE.xlsx
@@ -7863,7 +7863,7 @@
         <v>45175</v>
       </c>
       <c r="B147">
-        <v>512.3099999999999</v>
+        <v>512.3</v>
       </c>
       <c r="C147">
         <v>513.49</v>
@@ -7884,7 +7884,7 @@
         <v>38</v>
       </c>
       <c r="I147">
-        <v>-2.58</v>
+        <v>-2.57</v>
       </c>
       <c r="J147">
         <v>0.23</v>
@@ -7893,10 +7893,10 @@
         <v>-2.97</v>
       </c>
       <c r="L147">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="M147">
-        <v>0.3900000000000001</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="N147">
         <v>3.12</v>
